--- a/Gestion de Projet/Phase 1 Avant-Projet/Dossier de financement/Nouveau Feuille de calcul Microsoft Excel.xlsx
+++ b/Gestion de Projet/Phase 1 Avant-Projet/Dossier de financement/Nouveau Feuille de calcul Microsoft Excel.xlsx
@@ -1,25 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Documents\Chess-3000\Gestion de Projet\Phase 1 Avant-Projet\Dossier de financement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFCD603-3377-4CDE-A0F9-EBC2F3A42A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9720" yWindow="0" windowWidth="11712" windowHeight="12240" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Maquette 2x2" sheetId="1" r:id="rId1"/>
+    <sheet name="Maquette 4x4" sheetId="2" r:id="rId2"/>
+    <sheet name="Maquette finale" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,12 +349,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082C8E62-888A-45EF-B331-62DFA6CF2D09}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFD0976-79AE-42ED-AC61-EBFF95EA35F0}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Gestion de Projet/Phase 1 Avant-Projet/Dossier de financement/Nouveau Feuille de calcul Microsoft Excel.xlsx
+++ b/Gestion de Projet/Phase 1 Avant-Projet/Dossier de financement/Nouveau Feuille de calcul Microsoft Excel.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Documents\Chess-3000\Gestion de Projet\Phase 1 Avant-Projet\Dossier de financement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFCD603-3377-4CDE-A0F9-EBC2F3A42A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32091ADB-C2B8-4A70-BD5E-AA5419A03F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="0" windowWidth="11712" windowHeight="12240" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maquette 2x2" sheetId="1" r:id="rId1"/>
     <sheet name="Maquette 4x4" sheetId="2" r:id="rId2"/>
     <sheet name="Maquette finale" sheetId="3" r:id="rId3"/>
+    <sheet name="Divers" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,6 +36,50 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+  <si>
+    <t>électroaimants</t>
+  </si>
+  <si>
+    <t>leds</t>
+  </si>
+  <si>
+    <t>marge</t>
+  </si>
+  <si>
+    <t>quantité</t>
+  </si>
+  <si>
+    <t>prix unitaire</t>
+  </si>
+  <si>
+    <t>prix total</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>Composants</t>
+  </si>
+  <si>
+    <t>Chassis</t>
+  </si>
+  <si>
+    <t>Pièces d'échecs</t>
+  </si>
+  <si>
+    <t>Visserie</t>
+  </si>
+  <si>
+    <t>Estimation pessimiste</t>
+  </si>
+  <si>
+    <t>Estimation optimiste</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,36 +395,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <f>ROUNDUP(B2+B2*0.15,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5.5</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <f>ROUNDUP(B3+B3*0.15,0)</f>
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <f>D3*C3</f>
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C5" si="0">ROUNDUP(B4+B4*0.15,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="1">D4*C4</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <f>SUM(E2:E5)</f>
+        <v>118.2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082C8E62-888A-45EF-B331-62DFA6CF2D09}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <f>ROUNDUP(B2+B2*0.15,0)</f>
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>5.5</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3">
+        <f>ROUNDUP(B3+B3*0.15,0)</f>
+        <v>92</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <f>D3*C3</f>
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C5" si="0">ROUNDUP(B4+B4*0.15,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="1">D4*C4</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <f>ROUNDUP(B6+B6*0.15,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <f>SUM(E2:E5,C6*37.5)</f>
+        <v>364.8</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E2:E6)</f>
+        <v>477.3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FFD0976-79AE-42ED-AC61-EBFF95EA35F0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <f>ROUNDUP(B2+B2*0.15,0)</f>
+        <v>74</v>
+      </c>
+      <c r="D2">
+        <v>5.5</v>
+      </c>
+      <c r="E2">
+        <f>D2*C2</f>
+        <v>407</v>
+      </c>
+      <c r="G2">
+        <f>SUM('Maquette finale'!E2,'Maquette 4x4'!E2,'Maquette 2x2'!E2)</f>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>320</v>
+      </c>
+      <c r="C3">
+        <f>ROUNDUP(B3+B3*0.15,0)</f>
+        <v>368</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <f>D3*C3</f>
+        <v>331.2</v>
+      </c>
+      <c r="G3">
+        <f>SUM('Maquette finale'!E3,'Maquette 4x4'!E3,'Maquette 2x2'!E3)</f>
+        <v>434.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C6" si="0">ROUNDUP(B4+B4*0.15,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E6" si="1">D4*C4</f>
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <f>SUM('Maquette finale'!E4,'Maquette 4x4'!E4,'Maquette 2x2'!E4)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <f>SUM('Maquette finale'!E5,'Maquette 4x4'!E5,'Maquette 2x2'!E5)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="G6">
+        <f>SUM('Maquette finale'!E6,'Maquette 4x4'!E6)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f>SUM(E2:E5,C6*37.5)</f>
+        <v>1100.7</v>
+      </c>
+      <c r="E11">
+        <f>SUM(E2:E6)</f>
+        <v>1438.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>(E11+'Maquette 4x4'!E7+'Maquette 2x2'!E6+Divers!E5)*1.2</f>
+        <v>2680.4399999999996</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>(D11+'Maquette 4x4'!D7+'Maquette 2x2'!E6+Divers!E5)*1.2</f>
+        <v>2140.44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6B4F18-8D1C-4217-928D-94C88780A92D}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <f>D3*C3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <f>D4*C4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <f>SUM(E3:E4)</f>
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>